--- a/datacollector/samples/to 豆腐(1).xlsx
+++ b/datacollector/samples/to 豆腐(1).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32C4B539-A1F3-47C7-B173-010B818BE196}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="项目1信息" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="125">
   <si>
     <t>遵义</t>
   </si>
@@ -363,19 +362,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中西战区力度</t>
+    <t>这个值的合理与否需要考虑前面二列的值，具体算法待明确</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>京苏战区力度</t>
+    <t>数据统计汇总维度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>沪北战区力度</t>
+    <t>战区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>东南战区力度</t>
+    <t>全国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接把所有项目的求和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GMV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GMV（流水）=客单价x订单数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各个城市相加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力度=补贴金额/该城市的GMV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依据力度计算出各个城市的补贴金额相加/GMV求和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -388,22 +419,18 @@
   </si>
   <si>
     <t>项目1九月力度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要填写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="0.000%"/>
-    <numFmt numFmtId="180" formatCode="0.00000%"/>
+    <numFmt numFmtId="176" formatCode="0.000%"/>
+    <numFmt numFmtId="177" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,13 +475,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -525,7 +570,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -535,27 +580,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{8C87D6F5-6A7F-42B6-8BB9-40FA378FA453}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -832,1672 +884,1826 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D606F19D-539E-4436-89C4-945C08549DA4}">
-  <dimension ref="A1:E109"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="5"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="14"/>
+    <col min="3" max="3" width="15" style="14" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="11" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="D1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B2" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="7">
+        <v>8.1692360438249989E-7</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1.4853156443318201E-6</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="H2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="C3" s="15"/>
+      <c r="D3" s="7">
+        <v>1.1044807131251398E-5</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2.0081467511366178E-5</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="H3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="C4" s="15"/>
+      <c r="D4" s="7">
+        <v>6.0452346724305E-6</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1.0991335768055453E-5</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="C5" s="15"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="9">
-        <v>8.1692360438249989E-7</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1.4853156443318179E-6</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B6" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2.5582779594842368E-4</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4.651414471789521E-4</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="9">
-        <v>1.1044807131251398E-5</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="B7" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3.6042669425355892E-5</v>
+      </c>
+      <c r="E7" s="5">
         <v>2.0081467511366178E-5</v>
       </c>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F7" s="8">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="B8" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="12">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7">
         <v>6.0452346724305E-6</v>
       </c>
-      <c r="D8" s="6">
+      <c r="E8" s="5">
         <v>1.0991335768055453E-5</v>
       </c>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B9" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="12">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="9">
+      <c r="B10" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="12">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
         <v>2.5582779594842368E-4</v>
       </c>
-      <c r="D10" s="6">
+      <c r="E10" s="5">
         <v>4.651414471789521E-4</v>
       </c>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F10" s="8">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="B11" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="12">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7">
         <v>3.6042669425355892E-5</v>
       </c>
-      <c r="D11" s="6">
+      <c r="E11" s="5">
         <v>6.5532126227919795E-5</v>
       </c>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F11" s="8"/>
+      <c r="J11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="9">
+      <c r="B12" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="12">
+        <v>4</v>
+      </c>
+      <c r="D12" s="7">
         <v>1.15349612938809E-4</v>
       </c>
-      <c r="D12" s="6">
+      <c r="E12" s="5">
         <v>2.097265689796527E-4</v>
       </c>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F12" s="8"/>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="9">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0</v>
-      </c>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B13" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="J13" t="s">
+        <v>112</v>
+      </c>
+      <c r="K13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="9">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0</v>
-      </c>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B14" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="J14" t="s">
+        <v>113</v>
+      </c>
+      <c r="K14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="9">
+      <c r="B15" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="7">
         <v>1.8527827347395099E-5</v>
       </c>
-      <c r="D15" s="6">
+      <c r="E15" s="5">
         <v>3.3686958813445634E-5</v>
       </c>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F15" s="8">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="9">
+      <c r="B16" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="7">
         <v>1.1110161019601998E-6</v>
       </c>
-      <c r="D16" s="6">
+      <c r="E16" s="5">
         <v>2.0200292762912722E-6</v>
       </c>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="9">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0</v>
-      </c>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B17" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="9">
-        <v>0</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0</v>
-      </c>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B18" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="9">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6">
-        <v>0</v>
-      </c>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B19" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="9">
+      <c r="B20" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="7">
         <v>1.03912682477454E-5</v>
       </c>
-      <c r="D20" s="6">
+      <c r="E20" s="5">
         <v>1.8893214995900725E-5</v>
       </c>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" s="9">
+      <c r="B21" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="7">
         <v>1.8080153212193486E-4</v>
       </c>
-      <c r="D21" s="6">
+      <c r="E21" s="5">
         <v>3.2873005840351792E-4</v>
       </c>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" s="9">
+      <c r="B22" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="7">
         <v>5.0649263471714991E-6</v>
       </c>
-      <c r="D22" s="6">
+      <c r="E22" s="5">
         <v>9.2089569948572701E-6</v>
       </c>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="9">
+      <c r="B23" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="7">
         <v>1.060693607930238E-4</v>
       </c>
-      <c r="D23" s="6">
+      <c r="E23" s="5">
         <v>1.9285338326004324E-4</v>
       </c>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="9">
-        <v>0</v>
-      </c>
-      <c r="D24" s="6">
-        <v>0</v>
-      </c>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B24" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="9">
-        <v>0</v>
-      </c>
-      <c r="D25" s="6">
-        <v>0</v>
-      </c>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B25" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" s="9">
+      <c r="B26" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="7">
         <v>6.3883425862711494E-5</v>
       </c>
-      <c r="D26" s="6">
+      <c r="E26" s="5">
         <v>1.1615168338674817E-4</v>
       </c>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="9">
+      <c r="B27" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="7">
         <v>4.3133566311395995E-6</v>
       </c>
-      <c r="D27" s="6">
+      <c r="E27" s="5">
         <v>7.8424666020719983E-6</v>
       </c>
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="12"/>
+      <c r="D28" s="7">
         <v>6.5353888350599989E-7</v>
       </c>
-      <c r="D28" s="6">
+      <c r="E28" s="5">
         <v>1.1882525154654543E-6</v>
       </c>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="12"/>
+      <c r="D29" s="7">
         <v>1.3201485446821199E-5</v>
       </c>
-      <c r="D29" s="6">
+      <c r="E29" s="5">
         <v>2.4002700812402178E-5</v>
       </c>
-      <c r="E29" s="11"/>
-    </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="12"/>
+      <c r="D30" s="7">
         <v>3.0389558083028992E-6</v>
       </c>
-      <c r="D30" s="6">
+      <c r="E30" s="5">
         <v>5.5253741969143615E-6</v>
       </c>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="12"/>
+      <c r="D31" s="7">
         <v>9.4763138108369993E-7</v>
       </c>
-      <c r="D31" s="6">
+      <c r="E31" s="5">
         <v>1.7229661474249088E-6</v>
       </c>
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="9">
-        <v>0</v>
-      </c>
-      <c r="D32" s="6">
-        <v>0</v>
-      </c>
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="C32" s="12"/>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0</v>
+      </c>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="9">
-        <v>0</v>
-      </c>
-      <c r="D33" s="6">
-        <v>0</v>
-      </c>
-      <c r="E33" s="11"/>
-    </row>
-    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="C33" s="12"/>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="9">
-        <v>0</v>
-      </c>
-      <c r="D34" s="6">
-        <v>0</v>
-      </c>
-      <c r="E34" s="11"/>
-    </row>
-    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="C34" s="12"/>
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0</v>
+      </c>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="12"/>
+      <c r="D35" s="7">
         <v>4.1859165488559292E-5</v>
       </c>
-      <c r="D35" s="6">
+      <c r="E35" s="5">
         <v>7.6107573615562338E-5</v>
       </c>
-      <c r="E35" s="11"/>
-    </row>
-    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="9">
-        <v>0</v>
-      </c>
-      <c r="D36" s="6">
-        <v>0</v>
-      </c>
-      <c r="E36" s="11"/>
-    </row>
-    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="C36" s="12"/>
+      <c r="D36" s="7">
+        <v>0</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0</v>
+      </c>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="12"/>
+      <c r="D37" s="7">
         <v>9.9011140851158988E-6</v>
       </c>
-      <c r="D37" s="6">
+      <c r="E37" s="5">
         <v>1.8002025609301634E-5</v>
       </c>
-      <c r="E37" s="11"/>
-    </row>
-    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="9">
-        <v>0</v>
-      </c>
-      <c r="D38" s="6">
-        <v>0</v>
-      </c>
-      <c r="E38" s="11"/>
-    </row>
-    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="C38" s="12"/>
+      <c r="D38" s="7">
+        <v>0</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0</v>
+      </c>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="12"/>
+      <c r="D39" s="7">
         <v>1.5815640980845197E-5</v>
       </c>
-      <c r="D39" s="6">
+      <c r="E39" s="5">
         <v>2.875571087426399E-5</v>
       </c>
-      <c r="E39" s="11"/>
-    </row>
-    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="9">
-        <v>0</v>
-      </c>
-      <c r="D40" s="6">
-        <v>0</v>
-      </c>
-      <c r="E40" s="11"/>
-    </row>
-    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="C40" s="12"/>
+      <c r="D40" s="7">
+        <v>0</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0</v>
+      </c>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="12"/>
+      <c r="D41" s="7">
         <v>5.4570496772750995E-6</v>
       </c>
-      <c r="D41" s="6">
+      <c r="E41" s="5">
         <v>9.9219085041365436E-6</v>
       </c>
-      <c r="E41" s="11"/>
-    </row>
-    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="12"/>
+      <c r="D42" s="7">
         <v>3.9865871893865995E-6</v>
       </c>
-      <c r="D42" s="6">
+      <c r="E42" s="5">
         <v>7.2483403443392709E-6</v>
       </c>
-      <c r="E42" s="11"/>
-    </row>
-    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="12"/>
+      <c r="D43" s="7">
         <v>1.6011702645897003E-6</v>
       </c>
-      <c r="D43" s="6">
+      <c r="E43" s="5">
         <v>2.9112186628903637E-6</v>
       </c>
-      <c r="E43" s="11"/>
-    </row>
-    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C44" s="9">
-        <v>0</v>
-      </c>
-      <c r="D44" s="6">
-        <v>0</v>
-      </c>
-      <c r="E44" s="11"/>
-    </row>
-    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="C44" s="12"/>
+      <c r="D44" s="7">
+        <v>0</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0</v>
+      </c>
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C45" s="9">
-        <v>0</v>
-      </c>
-      <c r="D45" s="6">
-        <v>0</v>
-      </c>
-      <c r="E45" s="11"/>
-    </row>
-    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="C45" s="12"/>
+      <c r="D45" s="7">
+        <v>0</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0</v>
+      </c>
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="12"/>
+      <c r="D46" s="7">
         <v>1.9279397063426998E-6</v>
       </c>
-      <c r="D46" s="6">
+      <c r="E46" s="5">
         <v>3.5053449206230902E-6</v>
       </c>
-      <c r="E46" s="11"/>
-    </row>
-    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C47" s="9">
-        <v>0</v>
-      </c>
-      <c r="D47" s="6">
-        <v>0</v>
-      </c>
-      <c r="E47" s="11"/>
-    </row>
-    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="C47" s="12"/>
+      <c r="D47" s="7">
+        <v>0</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0</v>
+      </c>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="12"/>
+      <c r="D48" s="7">
         <v>1.7645549854662E-6</v>
       </c>
-      <c r="D48" s="6">
+      <c r="E48" s="5">
         <v>3.2082817917567269E-6</v>
       </c>
-      <c r="E48" s="11"/>
-    </row>
-    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="12"/>
+      <c r="D49" s="7">
         <v>1.9279397063426998E-6</v>
       </c>
-      <c r="D49" s="6">
+      <c r="E49" s="5">
         <v>3.5053449206230902E-6</v>
       </c>
-      <c r="E49" s="11"/>
-    </row>
-    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="9">
-        <v>0</v>
-      </c>
-      <c r="D50" s="6">
-        <v>0</v>
-      </c>
-      <c r="E50" s="11"/>
-    </row>
-    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="C50" s="12"/>
+      <c r="D50" s="7">
+        <v>0</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0</v>
+      </c>
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="12"/>
+      <c r="D51" s="7">
         <v>1.03912682477454E-5</v>
       </c>
-      <c r="D51" s="6">
+      <c r="E51" s="5">
         <v>1.8893214995900725E-5</v>
       </c>
-      <c r="E51" s="11"/>
-    </row>
-    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="12"/>
+      <c r="D52" s="7">
         <v>1.3822347386151899E-5</v>
       </c>
-      <c r="D52" s="6">
+      <c r="E52" s="5">
         <v>2.5131540702094359E-5</v>
       </c>
-      <c r="E52" s="11"/>
-    </row>
-    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="12"/>
+      <c r="D53" s="7">
         <v>4.2349319651188796E-5</v>
       </c>
-      <c r="D53" s="6">
+      <c r="E53" s="5">
         <v>7.6998763002161436E-5</v>
       </c>
-      <c r="E53" s="11"/>
-    </row>
-    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F53" s="8"/>
+    </row>
+    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="12"/>
+      <c r="D54" s="7">
         <v>1.0623274551390028E-4</v>
       </c>
-      <c r="D54" s="6">
+      <c r="E54" s="5">
         <v>1.9315044638890959E-4</v>
       </c>
-      <c r="E54" s="11"/>
-    </row>
-    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F54" s="8"/>
+    </row>
+    <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C55" s="9">
-        <v>0</v>
-      </c>
-      <c r="D55" s="6">
-        <v>0</v>
-      </c>
-      <c r="E55" s="11"/>
-    </row>
-    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="C55" s="12"/>
+      <c r="D55" s="7">
+        <v>0</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0</v>
+      </c>
+      <c r="F55" s="8"/>
+    </row>
+    <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C56" s="9">
-        <v>0</v>
-      </c>
-      <c r="D56" s="6">
-        <v>0</v>
-      </c>
-      <c r="E56" s="11"/>
-    </row>
-    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="C56" s="12"/>
+      <c r="D56" s="7">
+        <v>0</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0</v>
+      </c>
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="12"/>
+      <c r="D57" s="7">
         <v>7.0026691367667892E-5</v>
       </c>
-      <c r="D57" s="6">
+      <c r="E57" s="5">
         <v>1.2732125703212343E-4</v>
       </c>
-      <c r="E57" s="11"/>
-    </row>
-    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F57" s="8"/>
+    </row>
+    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="12"/>
+      <c r="D58" s="7">
         <v>7.5810510486695995E-6</v>
       </c>
-      <c r="D58" s="6">
+      <c r="E58" s="5">
         <v>1.378372917939927E-5</v>
       </c>
-      <c r="E58" s="11"/>
-    </row>
-    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F58" s="8"/>
+    </row>
+    <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C59" s="9">
-        <v>0</v>
-      </c>
-      <c r="D59" s="6">
-        <v>0</v>
-      </c>
-      <c r="E59" s="11"/>
-    </row>
-    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="C59" s="12"/>
+      <c r="D59" s="7">
+        <v>0</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0</v>
+      </c>
+      <c r="F59" s="8"/>
+    </row>
+    <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="12"/>
+      <c r="D60" s="7">
         <v>6.5647980848177693E-5</v>
       </c>
-      <c r="D60" s="6">
+      <c r="E60" s="5">
         <v>1.1935996517850488E-4</v>
       </c>
-      <c r="E60" s="11"/>
-    </row>
-    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="12"/>
+      <c r="D61" s="7">
         <v>4.7479599886710894E-5</v>
       </c>
-      <c r="D61" s="6">
+      <c r="E61" s="5">
         <v>8.6326545248565251E-5</v>
       </c>
-      <c r="E61" s="11"/>
-    </row>
-    <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62" s="12"/>
+      <c r="D62" s="7">
         <v>2.5161247014980999E-6</v>
       </c>
-      <c r="D62" s="6">
+      <c r="E62" s="5">
         <v>4.5747721845419991E-6</v>
       </c>
-      <c r="E62" s="11"/>
-    </row>
-    <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F62" s="8"/>
+    </row>
+    <row r="63" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C63" s="9">
-        <v>0</v>
-      </c>
-      <c r="D63" s="6">
-        <v>0</v>
-      </c>
-      <c r="E63" s="11"/>
-    </row>
-    <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="C63" s="12"/>
+      <c r="D63" s="7">
+        <v>0</v>
+      </c>
+      <c r="E63" s="5">
+        <v>0</v>
+      </c>
+      <c r="F63" s="8"/>
+    </row>
+    <row r="64" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C64" s="12"/>
+      <c r="D64" s="7">
         <v>8.8815934268465389E-5</v>
       </c>
-      <c r="D64" s="6">
+      <c r="E64" s="5">
         <v>1.6148351685175524E-4</v>
       </c>
-      <c r="E64" s="11"/>
-    </row>
-    <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F64" s="8"/>
+    </row>
+    <row r="65" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C65" s="9">
-        <v>0</v>
-      </c>
-      <c r="D65" s="6">
-        <v>0</v>
-      </c>
-      <c r="E65" s="11"/>
-    </row>
-    <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="C65" s="12"/>
+      <c r="D65" s="7">
+        <v>0</v>
+      </c>
+      <c r="E65" s="5">
+        <v>0</v>
+      </c>
+      <c r="F65" s="8"/>
+    </row>
+    <row r="66" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C66" s="9">
+      <c r="B66" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66" s="13"/>
+      <c r="D66" s="7">
         <v>3.0961404606096748E-4</v>
       </c>
-      <c r="D66" s="6">
+      <c r="E66" s="5">
         <v>5.6293462920175901E-4</v>
       </c>
-      <c r="E66" s="11"/>
-    </row>
-    <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F66" s="8"/>
+    </row>
+    <row r="67" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C67" s="9">
-        <v>0</v>
-      </c>
-      <c r="D67" s="6">
-        <v>0</v>
-      </c>
-      <c r="E67" s="11"/>
-    </row>
-    <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B67" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C67" s="13"/>
+      <c r="D67" s="7">
+        <v>0</v>
+      </c>
+      <c r="E67" s="5">
+        <v>0</v>
+      </c>
+      <c r="F67" s="8"/>
+    </row>
+    <row r="68" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C68" s="9">
+      <c r="B68" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C68" s="13"/>
+      <c r="D68" s="7">
         <v>1.7570392883058808E-4</v>
       </c>
-      <c r="D68" s="6">
+      <c r="E68" s="5">
         <v>3.1946168878288738E-4</v>
       </c>
-      <c r="E68" s="11"/>
-    </row>
-    <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F68" s="8"/>
+    </row>
+    <row r="69" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C69" s="9">
-        <v>0</v>
-      </c>
-      <c r="D69" s="6">
-        <v>0</v>
-      </c>
-      <c r="E69" s="11"/>
-    </row>
-    <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B69" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" s="13"/>
+      <c r="D69" s="7">
+        <v>0</v>
+      </c>
+      <c r="E69" s="5">
+        <v>0</v>
+      </c>
+      <c r="F69" s="8"/>
+    </row>
+    <row r="70" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C70" s="9">
-        <v>0</v>
-      </c>
-      <c r="D70" s="6">
-        <v>0</v>
-      </c>
-      <c r="E70" s="11"/>
-    </row>
-    <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B70" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="7">
+        <v>0</v>
+      </c>
+      <c r="E70" s="5">
+        <v>0</v>
+      </c>
+      <c r="F70" s="8"/>
+    </row>
+    <row r="71" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C71" s="9">
+      <c r="B71" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C71" s="13"/>
+      <c r="D71" s="7">
         <v>1.0865083938287246E-4</v>
       </c>
-      <c r="D71" s="6">
+      <c r="E71" s="5">
         <v>1.9754698069613175E-4</v>
       </c>
-      <c r="E71" s="11"/>
-    </row>
-    <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F71" s="8"/>
+    </row>
+    <row r="72" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C72" s="9">
-        <v>0</v>
-      </c>
-      <c r="D72" s="6">
-        <v>0</v>
-      </c>
-      <c r="E72" s="11"/>
-    </row>
-    <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B72" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="7">
+        <v>0</v>
+      </c>
+      <c r="E72" s="5">
+        <v>0</v>
+      </c>
+      <c r="F72" s="8"/>
+    </row>
+    <row r="73" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C73" s="9">
-        <v>0</v>
-      </c>
-      <c r="D73" s="6">
-        <v>0</v>
-      </c>
-      <c r="E73" s="11"/>
-    </row>
-    <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B73" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C73" s="13"/>
+      <c r="D73" s="7">
+        <v>0</v>
+      </c>
+      <c r="E73" s="5">
+        <v>0</v>
+      </c>
+      <c r="F73" s="8"/>
+    </row>
+    <row r="74" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C74" s="9">
+      <c r="B74" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74" s="13"/>
+      <c r="D74" s="7">
         <v>4.0846180219125E-6</v>
       </c>
-      <c r="D74" s="6">
+      <c r="E74" s="5">
         <v>7.4265782216590897E-6</v>
       </c>
-      <c r="E74" s="11"/>
-    </row>
-    <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F74" s="8"/>
+    </row>
+    <row r="75" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C75" s="9">
-        <v>0</v>
-      </c>
-      <c r="D75" s="6">
-        <v>0</v>
-      </c>
-      <c r="E75" s="11"/>
-    </row>
-    <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B75" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C75" s="13"/>
+      <c r="D75" s="7">
+        <v>0</v>
+      </c>
+      <c r="E75" s="5">
+        <v>0</v>
+      </c>
+      <c r="F75" s="8"/>
+    </row>
+    <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C76" s="9">
+      <c r="B76" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C76" s="13"/>
+      <c r="D76" s="7">
         <v>8.1790391270775885E-5</v>
       </c>
-      <c r="D76" s="6">
+      <c r="E76" s="5">
         <v>1.4870980231050161E-4</v>
       </c>
-      <c r="E76" s="11"/>
-    </row>
-    <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F76" s="8"/>
+    </row>
+    <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C77" s="9">
+      <c r="B77" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C77" s="13"/>
+      <c r="D77" s="7">
         <v>7.1889277185659991E-7</v>
       </c>
-      <c r="D77" s="6">
+      <c r="E77" s="5">
         <v>1.3070777670119998E-6</v>
       </c>
-      <c r="E77" s="11"/>
-    </row>
-    <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F77" s="8"/>
+    </row>
+    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C78" s="9">
-        <v>0</v>
-      </c>
-      <c r="D78" s="6">
-        <v>0</v>
-      </c>
-      <c r="E78" s="11"/>
-    </row>
-    <row r="79" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B78" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C78" s="13"/>
+      <c r="D78" s="7">
+        <v>0</v>
+      </c>
+      <c r="E78" s="5">
+        <v>0</v>
+      </c>
+      <c r="F78" s="8"/>
+    </row>
+    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C79" s="9">
-        <v>0</v>
-      </c>
-      <c r="D79" s="6">
-        <v>0</v>
-      </c>
-      <c r="E79" s="11"/>
-    </row>
-    <row r="80" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B79" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C79" s="13"/>
+      <c r="D79" s="7">
+        <v>0</v>
+      </c>
+      <c r="E79" s="5">
+        <v>0</v>
+      </c>
+      <c r="F79" s="8"/>
+    </row>
+    <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C80" s="9">
+      <c r="B80" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C80" s="13"/>
+      <c r="D80" s="7">
         <v>9.2377721183573092E-5</v>
       </c>
-      <c r="D80" s="6">
+      <c r="E80" s="5">
         <v>1.6795949306104197E-4</v>
       </c>
-      <c r="E80" s="11"/>
-    </row>
-    <row r="81" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F80" s="8"/>
+    </row>
+    <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C81" s="9">
+      <c r="B81" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81" s="13"/>
+      <c r="D81" s="7">
         <v>6.8621582768129985E-7</v>
       </c>
-      <c r="D81" s="6">
+      <c r="E81" s="5">
         <v>1.2476651412387269E-6</v>
       </c>
-      <c r="E81" s="11"/>
-    </row>
-    <row r="82" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F81" s="8"/>
+    </row>
+    <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C82" s="9">
+      <c r="B82" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C82" s="13"/>
+      <c r="D82" s="7">
         <v>4.8263846546918098E-5</v>
       </c>
-      <c r="D82" s="6">
+      <c r="E82" s="5">
         <v>8.7752448267123802E-5</v>
       </c>
-      <c r="E82" s="11"/>
-    </row>
-    <row r="83" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F82" s="8"/>
+    </row>
+    <row r="83" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C83" s="9">
-        <v>0</v>
-      </c>
-      <c r="D83" s="6">
-        <v>0</v>
-      </c>
-      <c r="E83" s="11"/>
-    </row>
-    <row r="84" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B83" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C83" s="13"/>
+      <c r="D83" s="7">
+        <v>0</v>
+      </c>
+      <c r="E83" s="5">
+        <v>0</v>
+      </c>
+      <c r="F83" s="8"/>
+    </row>
+    <row r="84" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C84" s="9">
+      <c r="B84" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C84" s="13"/>
+      <c r="D84" s="7">
         <v>1.4854938822091379E-4</v>
       </c>
-      <c r="D84" s="6">
+      <c r="E84" s="5">
         <v>2.7008979676529778E-4</v>
       </c>
-      <c r="E84" s="11"/>
-    </row>
-    <row r="85" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F84" s="8"/>
+    </row>
+    <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C85" s="9">
+      <c r="B85" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C85" s="13"/>
+      <c r="D85" s="7">
         <v>7.8032542690616391E-5</v>
       </c>
-      <c r="D85" s="6">
+      <c r="E85" s="5">
         <v>1.4187735034657523E-4</v>
       </c>
-      <c r="E85" s="11"/>
-    </row>
-    <row r="86" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F85" s="8"/>
+    </row>
+    <row r="86" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C86" s="9">
-        <v>0</v>
-      </c>
-      <c r="D86" s="6">
-        <v>0</v>
-      </c>
-      <c r="E86" s="11"/>
-    </row>
-    <row r="87" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B86" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C86" s="13"/>
+      <c r="D86" s="7">
+        <v>0</v>
+      </c>
+      <c r="E86" s="5">
+        <v>0</v>
+      </c>
+      <c r="F86" s="8"/>
+    </row>
+    <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C87" s="9">
-        <v>0</v>
-      </c>
-      <c r="D87" s="6">
-        <v>0</v>
-      </c>
-      <c r="E87" s="11"/>
-    </row>
-    <row r="88" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B87" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C87" s="13"/>
+      <c r="D87" s="7">
+        <v>0</v>
+      </c>
+      <c r="E87" s="5">
+        <v>0</v>
+      </c>
+      <c r="F87" s="8"/>
+    </row>
+    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C88" s="9">
-        <v>0</v>
-      </c>
-      <c r="D88" s="6">
-        <v>0</v>
-      </c>
-      <c r="E88" s="11"/>
-    </row>
-    <row r="89" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B88" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C88" s="13"/>
+      <c r="D88" s="7">
+        <v>0</v>
+      </c>
+      <c r="E88" s="5">
+        <v>0</v>
+      </c>
+      <c r="F88" s="8"/>
+    </row>
+    <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C89" s="9">
+      <c r="B89" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C89" s="13"/>
+      <c r="D89" s="7">
         <v>1.3070777670119998E-6</v>
       </c>
-      <c r="D89" s="6">
+      <c r="E89" s="5">
         <v>2.3765050309309085E-6</v>
       </c>
-      <c r="E89" s="11"/>
-    </row>
-    <row r="90" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F89" s="8"/>
+    </row>
+    <row r="90" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C90" s="9">
-        <v>0</v>
-      </c>
-      <c r="D90" s="6">
-        <v>0</v>
-      </c>
-      <c r="E90" s="11"/>
-    </row>
-    <row r="91" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B90" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C90" s="13"/>
+      <c r="D90" s="7">
+        <v>0</v>
+      </c>
+      <c r="E90" s="5">
+        <v>0</v>
+      </c>
+      <c r="F90" s="8"/>
+    </row>
+    <row r="91" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C91" s="9">
-        <v>0</v>
-      </c>
-      <c r="D91" s="6">
-        <v>0</v>
-      </c>
-      <c r="E91" s="11"/>
-    </row>
-    <row r="92" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B91" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C91" s="13"/>
+      <c r="D91" s="7">
+        <v>0</v>
+      </c>
+      <c r="E91" s="5">
+        <v>0</v>
+      </c>
+      <c r="F91" s="8"/>
+    </row>
+    <row r="92" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C92" s="9">
-        <v>0</v>
-      </c>
-      <c r="D92" s="6">
-        <v>0</v>
-      </c>
-      <c r="E92" s="11"/>
-    </row>
-    <row r="93" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B92" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C92" s="13"/>
+      <c r="D92" s="7">
+        <v>0</v>
+      </c>
+      <c r="E92" s="5">
+        <v>0</v>
+      </c>
+      <c r="F92" s="8"/>
+    </row>
+    <row r="93" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C93" s="9">
-        <v>0</v>
-      </c>
-      <c r="D93" s="6">
-        <v>0</v>
-      </c>
-      <c r="E93" s="11"/>
-    </row>
-    <row r="94" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B93" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C93" s="13"/>
+      <c r="D93" s="7">
+        <v>0</v>
+      </c>
+      <c r="E93" s="5">
+        <v>0</v>
+      </c>
+      <c r="F93" s="8"/>
+    </row>
+    <row r="94" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C94" s="9">
-        <v>0</v>
-      </c>
-      <c r="D94" s="6">
-        <v>0</v>
-      </c>
-      <c r="E94" s="11"/>
-    </row>
-    <row r="95" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B94" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C94" s="13"/>
+      <c r="D94" s="7">
+        <v>0</v>
+      </c>
+      <c r="E94" s="5">
+        <v>0</v>
+      </c>
+      <c r="F94" s="8"/>
+    </row>
+    <row r="95" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C95" s="9">
-        <v>0</v>
-      </c>
-      <c r="D95" s="6">
-        <v>0</v>
-      </c>
-      <c r="E95" s="11"/>
-    </row>
-    <row r="96" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B95" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C95" s="13"/>
+      <c r="D95" s="7">
+        <v>0</v>
+      </c>
+      <c r="E95" s="5">
+        <v>0</v>
+      </c>
+      <c r="F95" s="8"/>
+    </row>
+    <row r="96" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C96" s="9">
-        <v>0</v>
-      </c>
-      <c r="D96" s="6">
-        <v>0</v>
-      </c>
-      <c r="E96" s="11"/>
-    </row>
-    <row r="97" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B96" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C96" s="13"/>
+      <c r="D96" s="7">
+        <v>0</v>
+      </c>
+      <c r="E96" s="5">
+        <v>0</v>
+      </c>
+      <c r="F96" s="8"/>
+    </row>
+    <row r="97" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C97" s="9">
-        <v>0</v>
-      </c>
-      <c r="D97" s="6">
-        <v>0</v>
-      </c>
-      <c r="E97" s="11"/>
-    </row>
-    <row r="98" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B97" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C97" s="13"/>
+      <c r="D97" s="7">
+        <v>0</v>
+      </c>
+      <c r="E97" s="5">
+        <v>0</v>
+      </c>
+      <c r="F97" s="8"/>
+    </row>
+    <row r="98" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C98" s="9">
-        <v>0</v>
-      </c>
-      <c r="D98" s="6">
-        <v>0</v>
-      </c>
-      <c r="E98" s="11"/>
-    </row>
-    <row r="99" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B98" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C98" s="13"/>
+      <c r="D98" s="7">
+        <v>0</v>
+      </c>
+      <c r="E98" s="5">
+        <v>0</v>
+      </c>
+      <c r="F98" s="8"/>
+    </row>
+    <row r="99" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C99" s="9">
-        <v>0</v>
-      </c>
-      <c r="D99" s="6">
-        <v>0</v>
-      </c>
-      <c r="E99" s="11"/>
-    </row>
-    <row r="100" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B99" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C99" s="13"/>
+      <c r="D99" s="7">
+        <v>0</v>
+      </c>
+      <c r="E99" s="5">
+        <v>0</v>
+      </c>
+      <c r="F99" s="8"/>
+    </row>
+    <row r="100" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C100" s="9">
+      <c r="B100" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C100" s="13"/>
+      <c r="D100" s="7">
         <v>9.1789536188417693E-5</v>
       </c>
-      <c r="D100" s="6">
+      <c r="E100" s="5">
         <v>1.6689006579712306E-4</v>
       </c>
-      <c r="E100" s="11"/>
-    </row>
-    <row r="101" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F100" s="8"/>
+    </row>
+    <row r="101" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C101" s="9">
-        <v>0</v>
-      </c>
-      <c r="D101" s="6">
-        <v>0</v>
-      </c>
-      <c r="E101" s="11"/>
-    </row>
-    <row r="102" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B101" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101" s="13"/>
+      <c r="D101" s="7">
+        <v>0</v>
+      </c>
+      <c r="E101" s="5">
+        <v>0</v>
+      </c>
+      <c r="F101" s="8"/>
+    </row>
+    <row r="102" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C102" s="9">
+      <c r="B102" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" s="13"/>
+      <c r="D102" s="7">
         <v>9.7050524200640995E-6</v>
       </c>
-      <c r="D102" s="6">
+      <c r="E102" s="5">
         <v>1.7645549854661997E-5</v>
       </c>
-      <c r="E102" s="11"/>
-    </row>
-    <row r="103" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F102" s="8"/>
+    </row>
+    <row r="103" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C103" s="9">
-        <v>0</v>
-      </c>
-      <c r="D103" s="6">
-        <v>0</v>
-      </c>
-      <c r="E103" s="11"/>
-    </row>
-    <row r="104" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B103" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C103" s="13"/>
+      <c r="D103" s="7">
+        <v>0</v>
+      </c>
+      <c r="E103" s="5">
+        <v>0</v>
+      </c>
+      <c r="F103" s="8"/>
+    </row>
+    <row r="104" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C104" s="9">
-        <v>0</v>
-      </c>
-      <c r="D104" s="6">
-        <v>0</v>
-      </c>
-      <c r="E104" s="11"/>
-    </row>
-    <row r="105" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B104" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C104" s="13"/>
+      <c r="D104" s="7">
+        <v>0</v>
+      </c>
+      <c r="E104" s="5">
+        <v>0</v>
+      </c>
+      <c r="F104" s="8"/>
+    </row>
+    <row r="105" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C105" s="9">
+      <c r="B105" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105" s="13"/>
+      <c r="D105" s="7">
         <v>8.4927377911604688E-5</v>
       </c>
-      <c r="D105" s="6">
+      <c r="E105" s="5">
         <v>1.5441341438473578E-4</v>
       </c>
-      <c r="E105" s="11"/>
-    </row>
-    <row r="106" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F105" s="8"/>
+    </row>
+    <row r="106" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C106" s="9">
+      <c r="B106" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C106" s="13"/>
+      <c r="D106" s="7">
         <v>8.822774927331E-6</v>
       </c>
-      <c r="D106" s="6">
+      <c r="E106" s="5">
         <v>1.6041408958783634E-5</v>
       </c>
-      <c r="E106" s="11"/>
-    </row>
-    <row r="107" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F106" s="8"/>
+    </row>
+    <row r="107" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C107" s="9">
-        <v>0</v>
-      </c>
-      <c r="D107" s="6">
-        <v>0</v>
-      </c>
-      <c r="E107" s="11"/>
-    </row>
-    <row r="108" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="B107" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C107" s="13"/>
+      <c r="D107" s="7">
+        <v>0</v>
+      </c>
+      <c r="E107" s="5">
+        <v>0</v>
+      </c>
+      <c r="F107" s="8"/>
+    </row>
+    <row r="108" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C108" s="9">
+      <c r="B108" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C108" s="13"/>
+      <c r="D108" s="7">
         <v>1.2744008228367E-5</v>
       </c>
-      <c r="D108" s="6">
+      <c r="E108" s="5">
         <v>2.3170924051576362E-5</v>
       </c>
-      <c r="E108" s="11"/>
-    </row>
-    <row r="109" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F108" s="8"/>
+    </row>
+    <row r="109" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C109" s="9">
+      <c r="B109" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C109" s="13"/>
+      <c r="D109" s="7">
         <v>5.5550805098009991E-7</v>
       </c>
-      <c r="D109" s="6">
+      <c r="E109" s="5">
         <v>1.0100146381456361E-6</v>
       </c>
-      <c r="E109" s="12"/>
+      <c r="F109" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E6:E109"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datacollector/samples/to 豆腐(1).xlsx
+++ b/datacollector/samples/to 豆腐(1).xlsx
@@ -888,7 +888,7 @@
   <dimension ref="A1:K109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
